--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2244886.886064009</v>
+        <v>2242256.493262274</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2668988.932318826</v>
+        <v>2668988.932318825</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4710514.801755087</v>
+        <v>4710514.801755089</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>35.44860233552593</v>
       </c>
       <c r="V2" t="n">
-        <v>100.6939302847285</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -800,7 +800,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>227.8160734080467</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>116.3621902967423</v>
+        <v>157.5099299853876</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>229.8660471796657</v>
+        <v>282.9042317581935</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>86.80189607361297</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>49.93354191224999</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>51.16071062396789</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>38.9900216317286</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>150.2822205287812</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>105.9996670424334</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1381,7 +1381,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>271.3763147888095</v>
       </c>
       <c r="G11" t="n">
         <v>408.5363925405122</v>
@@ -1390,7 +1390,7 @@
         <v>315.7755108463297</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T11" t="n">
-        <v>84.72658966339813</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S12" t="n">
         <v>128.6645579096422</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>141.6323021938483</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>228.5022946668575</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -1624,10 +1624,10 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H14" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>25.45094399334582</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>255.1479842128678</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S15" t="n">
         <v>128.6645579096422</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>100.9521792193267</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>196.9204403800746</v>
+        <v>162.6001269176614</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U16" t="n">
         <v>282.5722990436504</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>396.0417723651109</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -1861,10 +1861,10 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H17" t="n">
-        <v>79.24886783531878</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.535560979117122</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U17" t="n">
         <v>253.1556234364382</v>
@@ -1906,13 +1906,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>117.4555923094378</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>196.9204403800746</v>
+        <v>188.7301953270944</v>
       </c>
       <c r="T19" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2140,10 +2140,10 @@
         <v>253.1556234364382</v>
       </c>
       <c r="V20" t="n">
-        <v>115.1548754601542</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>93.20017365945078</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2180,7 +2180,7 @@
         <v>84.85793197620509</v>
       </c>
       <c r="I21" t="n">
-        <v>39.77957330346644</v>
+        <v>39.77957330346645</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011047</v>
       </c>
       <c r="S21" t="n">
         <v>128.6645579096422</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>121.8524787749609</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>275.0426162426205</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.5363925405122</v>
+        <v>25.81234314157249</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>253.1556234364382</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>341.5197708208511</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S24" t="n">
         <v>128.6645579096422</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>22.13125760062956</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.0995905398867</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>45.30023476078719</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>315.7755108463297</v>
@@ -2608,7 +2608,7 @@
         <v>153.5746362079504</v>
       </c>
       <c r="T26" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1556234364382</v>
@@ -2617,13 +2617,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>183.0679343654957</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S27" t="n">
         <v>128.6645579096422</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.3495920856427</v>
       </c>
       <c r="H28" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>125.0897031029503</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>183.0858452577176</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>185.4588754336822</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H29" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>361.8502826080611</v>
+        <v>323.2507364859727</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S30" t="n">
         <v>128.6645579096422</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>14.38465326559117</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>29.3778870985494</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>151.9598890131151</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>284.4595276858431</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1556234364382</v>
@@ -3091,7 +3091,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>285.4866846145736</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S33" t="n">
         <v>128.6645579096422</v>
@@ -3189,19 +3189,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>51.99173599062928</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>110.6402569162737</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>172.5306038684052</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H35" t="n">
         <v>315.7755108463297</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>46.93724379143842</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S36" t="n">
         <v>128.6645579096422</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>82.63651369466542</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>55.75304794757955</v>
       </c>
       <c r="T37" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>360.6534699099925</v>
       </c>
       <c r="G38" t="n">
-        <v>350.2707343350123</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H38" t="n">
         <v>315.7755108463297</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T38" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S39" t="n">
         <v>128.6645579096422</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>42.11498812477243</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T40" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -3726,7 +3726,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>33.87893464137854</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>296.1126481772123</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3751,13 +3751,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>408.5363925405122</v>
       </c>
       <c r="H41" t="n">
-        <v>315.7755108463297</v>
+        <v>249.1013368174241</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S42" t="n">
         <v>128.6645579096422</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>59.07643454321176</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>33.87893464137857</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T43" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>54.05424747122498</v>
       </c>
       <c r="C44" t="n">
-        <v>376.8372614364338</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3994,10 +3994,10 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H44" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>161.6848910894336</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>232.4136522254854</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>33.87893464137812</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.489511166612</v>
+        <v>986.2431031906915</v>
       </c>
       <c r="C2" t="n">
-        <v>857.3140096695423</v>
+        <v>593.067601693622</v>
       </c>
       <c r="D2" t="n">
-        <v>471.8728808862101</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="E2" t="n">
-        <v>69.28935600275456</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F2" t="n">
-        <v>56.43532157313638</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2142.147902636597</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U2" t="n">
-        <v>2142.147902636597</v>
+        <v>2125.335367277969</v>
       </c>
       <c r="V2" t="n">
-        <v>2040.436861944952</v>
+        <v>1783.228557981487</v>
       </c>
       <c r="W2" t="n">
-        <v>2040.436861944952</v>
+        <v>1783.228557981487</v>
       </c>
       <c r="X2" t="n">
-        <v>1650.984256878009</v>
+        <v>1783.228557981487</v>
       </c>
       <c r="Y2" t="n">
-        <v>1650.984256878009</v>
+        <v>1386.737848902088</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.492043226187</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N3" t="n">
-        <v>1229.492043226187</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O3" t="n">
-        <v>1746.012325817167</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>504.2202615058177</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>504.2202615058177</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>504.2202615058177</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>348.6614493650202</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154361</v>
+        <v>348.6614493650202</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I4" t="n">
         <v>47.31297010154361</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>622.0429194582225</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V4" t="n">
-        <v>504.5053535019172</v>
+        <v>504.2202615058177</v>
       </c>
       <c r="W4" t="n">
-        <v>504.5053535019172</v>
+        <v>504.2202615058177</v>
       </c>
       <c r="X4" t="n">
-        <v>270.4250312849002</v>
+        <v>504.2202615058177</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>504.2202615058177</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.965832921677</v>
+        <v>1251.94639032356</v>
       </c>
       <c r="C5" t="n">
-        <v>1339.790331424607</v>
+        <v>858.7708888264909</v>
       </c>
       <c r="D5" t="n">
-        <v>1339.790331424607</v>
+        <v>473.3297600431587</v>
       </c>
       <c r="E5" t="n">
-        <v>1339.790331424607</v>
+        <v>473.3297600431587</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
@@ -4573,16 +4573,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>666.9511603618604</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M5" t="n">
-        <v>1212.952060406441</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N5" t="n">
-        <v>1740.763344043903</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V5" t="n">
-        <v>2133.460578633074</v>
+        <v>2041.893741101901</v>
       </c>
       <c r="W5" t="n">
-        <v>2133.460578633074</v>
+        <v>2041.893741101901</v>
       </c>
       <c r="X5" t="n">
-        <v>2133.460578633074</v>
+        <v>1652.441136034957</v>
       </c>
       <c r="Y5" t="n">
-        <v>2133.460578633074</v>
+        <v>1652.441136034957</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>160.4279523212711</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>745.9259573278732</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1331.423962334475</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O6" t="n">
-        <v>1847.944244925457</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.69124027544166</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="C7" t="n">
-        <v>77.69124027544166</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="D7" t="n">
-        <v>77.69124027544166</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="E7" t="n">
-        <v>77.69124027544166</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="F7" t="n">
-        <v>77.69124027544166</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U7" t="n">
-        <v>861.0813097404567</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V7" t="n">
-        <v>595.101964561281</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W7" t="n">
-        <v>311.7715624924585</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X7" t="n">
-        <v>77.69124027544166</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="Y7" t="n">
-        <v>77.69124027544166</v>
+        <v>335.8859465029718</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>611.6668769506938</v>
+        <v>1707.66427984272</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506938</v>
+        <v>1314.48877834565</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>929.0476495623182</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4831,25 +4831,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W8" t="n">
-        <v>1448.036191975559</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.652331741489</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="Y8" t="n">
-        <v>1012.161622662091</v>
+        <v>1707.66427984272</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>140.0776713099947</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>140.0776713099947</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>623.643757208308</v>
+        <v>443.7671209181035</v>
       </c>
       <c r="M9" t="n">
-        <v>623.643757208308</v>
+        <v>1029.265125924706</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.14176221491</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P9" t="n">
         <v>2131.283413522289</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>354.5917438963942</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>354.5917438963942</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>354.5917438963942</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4989,25 +4989,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V10" t="n">
-        <v>841.6896218931633</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="W10" t="n">
-        <v>558.3592198243409</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="X10" t="n">
-        <v>558.3592198243409</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>510.2248569938795</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2017.837703884093</v>
+        <v>1994.13192540182</v>
       </c>
       <c r="C11" t="n">
-        <v>1624.662202387024</v>
+        <v>1600.95642390475</v>
       </c>
       <c r="D11" t="n">
-        <v>1624.662202387024</v>
+        <v>1600.95642390475</v>
       </c>
       <c r="E11" t="n">
-        <v>1222.078677503568</v>
+        <v>1198.372899021295</v>
       </c>
       <c r="F11" t="n">
-        <v>805.184239033546</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="G11" t="n">
-        <v>392.5212162653519</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="H11" t="n">
-        <v>73.55605379431174</v>
+        <v>192.6272240963941</v>
       </c>
       <c r="I11" t="n">
         <v>73.55605379431174</v>
@@ -5065,28 +5065,28 @@
         <v>3677.802689715586</v>
       </c>
       <c r="R11" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S11" t="n">
-        <v>3516.075217809458</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="T11" t="n">
-        <v>3430.492804008045</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="U11" t="n">
-        <v>3174.780053062148</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="V11" t="n">
-        <v>3174.780053062148</v>
+        <v>3180.569985259559</v>
       </c>
       <c r="W11" t="n">
-        <v>2803.781018030435</v>
+        <v>3180.569985259559</v>
       </c>
       <c r="X11" t="n">
-        <v>2414.328412963492</v>
+        <v>2791.117380192616</v>
       </c>
       <c r="Y11" t="n">
-        <v>2017.837703884093</v>
+        <v>2394.626671113217</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>435.6120971457461</v>
       </c>
       <c r="L12" t="n">
-        <v>976.0784736788813</v>
+        <v>435.6120971457461</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.366865923598</v>
+        <v>1129.78370212994</v>
       </c>
       <c r="N12" t="n">
-        <v>1778.30220173075</v>
+        <v>1853.719037937092</v>
       </c>
       <c r="O12" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="P12" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q12" t="n">
         <v>2357.173157305615</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.1442981814467</v>
+        <v>525.6732193266455</v>
       </c>
       <c r="C13" t="n">
-        <v>367.939180247436</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="D13" t="n">
-        <v>367.939180247436</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="E13" t="n">
-        <v>367.939180247436</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="F13" t="n">
-        <v>367.939180247436</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="G13" t="n">
         <v>199.9092892518373</v>
@@ -5217,7 +5217,7 @@
         <v>1009.007396819615</v>
       </c>
       <c r="P13" t="n">
-        <v>1155.455528488098</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q13" t="n">
         <v>1177.274776709496</v>
@@ -5229,22 +5229,22 @@
         <v>1177.274776709496</v>
       </c>
       <c r="T13" t="n">
-        <v>946.4643780561047</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="U13" t="n">
-        <v>946.4643780561047</v>
+        <v>891.8482120189399</v>
       </c>
       <c r="V13" t="n">
-        <v>946.4643780561047</v>
+        <v>891.8482120189399</v>
       </c>
       <c r="W13" t="n">
-        <v>946.4643780561047</v>
+        <v>891.8482120189399</v>
       </c>
       <c r="X13" t="n">
-        <v>946.4643780561047</v>
+        <v>891.8482120189399</v>
       </c>
       <c r="Y13" t="n">
-        <v>723.352316872748</v>
+        <v>668.7361508355832</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.350002969508</v>
+        <v>2084.313670196385</v>
       </c>
       <c r="C14" t="n">
-        <v>2129.174501472438</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="D14" t="n">
-        <v>1743.733372689106</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E14" t="n">
-        <v>1341.149847805651</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F14" t="n">
-        <v>924.2554093356284</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G14" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H14" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I14" t="n">
         <v>73.55605379431174</v>
@@ -5311,19 +5311,19 @@
         <v>3522.67679455604</v>
       </c>
       <c r="U14" t="n">
-        <v>3522.67679455604</v>
+        <v>3266.964043610143</v>
       </c>
       <c r="V14" t="n">
-        <v>3180.569985259559</v>
+        <v>3241.25601937444</v>
       </c>
       <c r="W14" t="n">
-        <v>3180.569985259559</v>
+        <v>2870.256984342728</v>
       </c>
       <c r="X14" t="n">
-        <v>2922.844748680905</v>
+        <v>2480.804379275784</v>
       </c>
       <c r="Y14" t="n">
-        <v>2922.844748680905</v>
+        <v>2084.313670196385</v>
       </c>
     </row>
     <row r="15">
@@ -5366,10 +5366,10 @@
         <v>751.896308831685</v>
       </c>
       <c r="M15" t="n">
-        <v>1446.067913815879</v>
+        <v>751.896308831685</v>
       </c>
       <c r="N15" t="n">
-        <v>1446.067913815879</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O15" t="n">
         <v>1633.693092099578</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>175.5279519956518</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="C16" t="n">
-        <v>175.5279519956518</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D16" t="n">
-        <v>175.5279519956518</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E16" t="n">
         <v>73.55605379431174</v>
@@ -5454,7 +5454,7 @@
         <v>1009.007396819615</v>
       </c>
       <c r="P16" t="n">
-        <v>1155.455528488098</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q16" t="n">
         <v>1177.274776709496</v>
@@ -5463,25 +5463,25 @@
         <v>1177.274776709496</v>
       </c>
       <c r="S16" t="n">
-        <v>978.3652409720471</v>
+        <v>1013.032224267414</v>
       </c>
       <c r="T16" t="n">
-        <v>978.3652409720471</v>
+        <v>778.270959393186</v>
       </c>
       <c r="U16" t="n">
-        <v>692.9386762814911</v>
+        <v>492.84439470263</v>
       </c>
       <c r="V16" t="n">
-        <v>692.9386762814911</v>
+        <v>492.84439470263</v>
       </c>
       <c r="W16" t="n">
-        <v>409.6082742126687</v>
+        <v>492.84439470263</v>
       </c>
       <c r="X16" t="n">
-        <v>175.5279519956518</v>
+        <v>258.764072485613</v>
       </c>
       <c r="Y16" t="n">
-        <v>175.5279519956518</v>
+        <v>258.764072485613</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2283.434201948285</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="C17" t="n">
-        <v>1890.258700451215</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="D17" t="n">
-        <v>1504.817571667883</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E17" t="n">
-        <v>1102.234046784427</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F17" t="n">
-        <v>685.3396083144052</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G17" t="n">
-        <v>272.676585546211</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H17" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I17" t="n">
         <v>73.55605379431174</v>
@@ -5539,28 +5539,28 @@
         <v>3677.802689715586</v>
       </c>
       <c r="R17" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S17" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="T17" t="n">
-        <v>3671.201112969004</v>
+        <v>3456.489667360999</v>
       </c>
       <c r="U17" t="n">
-        <v>3415.488362023106</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="V17" t="n">
-        <v>3073.381552726625</v>
+        <v>2858.67010711862</v>
       </c>
       <c r="W17" t="n">
-        <v>3073.381552726625</v>
+        <v>2487.671072086908</v>
       </c>
       <c r="X17" t="n">
-        <v>2683.928947659681</v>
+        <v>2487.671072086908</v>
       </c>
       <c r="Y17" t="n">
-        <v>2683.928947659681</v>
+        <v>2091.180363007509</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J18" t="n">
-        <v>73.55605379431174</v>
+        <v>88.0009394950257</v>
       </c>
       <c r="K18" t="n">
-        <v>73.55605379431174</v>
+        <v>88.0009394950257</v>
       </c>
       <c r="L18" t="n">
-        <v>614.022430327447</v>
+        <v>628.4673160281609</v>
       </c>
       <c r="M18" t="n">
-        <v>614.022430327447</v>
+        <v>1322.638921012355</v>
       </c>
       <c r="N18" t="n">
         <v>1322.638921012355</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2692.725979234178</v>
+        <v>567.3498748647187</v>
       </c>
       <c r="C19" t="n">
-        <v>2574.083966800403</v>
+        <v>397.144756930708</v>
       </c>
       <c r="D19" t="n">
-        <v>2574.083966800403</v>
+        <v>397.144756930708</v>
       </c>
       <c r="E19" t="n">
-        <v>2574.083966800403</v>
+        <v>241.5859447899105</v>
       </c>
       <c r="F19" t="n">
-        <v>2574.083966800403</v>
+        <v>241.5859447899105</v>
       </c>
       <c r="G19" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H19" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I19" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J19" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K19" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L19" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M19" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N19" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O19" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P19" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q19" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R19" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S19" t="n">
-        <v>3478.893153978137</v>
+        <v>986.6382157730369</v>
       </c>
       <c r="T19" t="n">
-        <v>3244.13188910391</v>
+        <v>986.6382157730369</v>
       </c>
       <c r="U19" t="n">
-        <v>2958.705324413354</v>
+        <v>986.6382157730369</v>
       </c>
       <c r="V19" t="n">
-        <v>2692.725979234178</v>
+        <v>986.6382157730369</v>
       </c>
       <c r="W19" t="n">
-        <v>2692.725979234178</v>
+        <v>986.6382157730369</v>
       </c>
       <c r="X19" t="n">
-        <v>2692.725979234178</v>
+        <v>752.55789355602</v>
       </c>
       <c r="Y19" t="n">
-        <v>2692.725979234178</v>
+        <v>752.55789355602</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1593.208892700334</v>
+        <v>1986.384394197403</v>
       </c>
       <c r="C20" t="n">
         <v>1593.208892700334</v>
@@ -5767,7 +5767,7 @@
         <v>2498.882522004026</v>
       </c>
       <c r="O20" t="n">
-        <v>3021.445901261524</v>
+        <v>3021.445901261525</v>
       </c>
       <c r="P20" t="n">
         <v>3440.065528972629</v>
@@ -5788,16 +5788,16 @@
         <v>3266.964043610143</v>
       </c>
       <c r="V20" t="n">
-        <v>3150.645987589785</v>
+        <v>3266.964043610143</v>
       </c>
       <c r="W20" t="n">
-        <v>2779.646952558073</v>
+        <v>3172.822454055142</v>
       </c>
       <c r="X20" t="n">
-        <v>2390.19434749113</v>
+        <v>2783.369848988199</v>
       </c>
       <c r="Y20" t="n">
-        <v>1993.703638411731</v>
+        <v>2386.8791399088</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J21" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K21" t="n">
-        <v>435.6120971457461</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L21" t="n">
-        <v>598.7035852052032</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M21" t="n">
-        <v>598.7035852052032</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="N21" t="n">
-        <v>1322.638921012355</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="O21" t="n">
-        <v>1901.50987658722</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P21" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q21" t="n">
         <v>2357.173157305615</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3035.402287623911</v>
+        <v>399.3942848258077</v>
       </c>
       <c r="C22" t="n">
-        <v>2865.197169689901</v>
+        <v>229.189166891797</v>
       </c>
       <c r="D22" t="n">
-        <v>2742.113857796001</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E22" t="n">
-        <v>2742.113857796001</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F22" t="n">
-        <v>2742.113857796001</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G22" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H22" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I22" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J22" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K22" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L22" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M22" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N22" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O22" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P22" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q22" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R22" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S22" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T22" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="U22" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.802689715586</v>
+        <v>911.2954315303201</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.802689715586</v>
+        <v>633.4746070428247</v>
       </c>
       <c r="X22" t="n">
-        <v>3443.722367498569</v>
+        <v>399.3942848258077</v>
       </c>
       <c r="Y22" t="n">
-        <v>3220.610306315213</v>
+        <v>399.3942848258077</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2084.313670196385</v>
+        <v>1697.723721308568</v>
       </c>
       <c r="C23" t="n">
-        <v>1691.138168699316</v>
+        <v>1304.548219811498</v>
       </c>
       <c r="D23" t="n">
-        <v>1305.697039915984</v>
+        <v>919.1070910281658</v>
       </c>
       <c r="E23" t="n">
-        <v>903.1135150325281</v>
+        <v>516.5235661447102</v>
       </c>
       <c r="F23" t="n">
-        <v>486.2190765625058</v>
+        <v>99.62912767468799</v>
       </c>
       <c r="G23" t="n">
         <v>73.55605379431174</v>
@@ -6025,16 +6025,16 @@
         <v>3200.776916415102</v>
       </c>
       <c r="V23" t="n">
-        <v>3200.776916415102</v>
+        <v>2858.67010711862</v>
       </c>
       <c r="W23" t="n">
-        <v>2829.777881383389</v>
+        <v>2487.671072086908</v>
       </c>
       <c r="X23" t="n">
-        <v>2484.808415907782</v>
+        <v>2098.218467019964</v>
       </c>
       <c r="Y23" t="n">
-        <v>2484.808415907782</v>
+        <v>2098.218467019964</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J24" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K24" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L24" t="n">
-        <v>360.1952609394043</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M24" t="n">
-        <v>1054.366865923598</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N24" t="n">
-        <v>1778.30220173075</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O24" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P24" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q24" t="n">
         <v>2357.173157305615</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3157.614860150803</v>
+        <v>251.5439725489986</v>
       </c>
       <c r="C25" t="n">
-        <v>2987.409742216792</v>
+        <v>251.5439725489986</v>
       </c>
       <c r="D25" t="n">
-        <v>2987.409742216792</v>
+        <v>95.91085945151332</v>
       </c>
       <c r="E25" t="n">
-        <v>2831.850930075995</v>
+        <v>95.91085945151332</v>
       </c>
       <c r="F25" t="n">
-        <v>2831.850930075995</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G25" t="n">
-        <v>2831.850930075995</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H25" t="n">
-        <v>2700.437202257928</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I25" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J25" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K25" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L25" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M25" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N25" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O25" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P25" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q25" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R25" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S25" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T25" t="n">
-        <v>3443.041424841359</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="U25" t="n">
-        <v>3157.614860150803</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="V25" t="n">
-        <v>3157.614860150803</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="W25" t="n">
-        <v>3157.614860150803</v>
+        <v>893.9443746406735</v>
       </c>
       <c r="X25" t="n">
-        <v>3157.614860150803</v>
+        <v>659.8640524236565</v>
       </c>
       <c r="Y25" t="n">
-        <v>3157.614860150803</v>
+        <v>436.7519912402998</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2129.174501472438</v>
+        <v>1367.42013942421</v>
       </c>
       <c r="C26" t="n">
-        <v>2129.174501472438</v>
+        <v>974.2446379271405</v>
       </c>
       <c r="D26" t="n">
-        <v>1743.733372689106</v>
+        <v>974.2446379271405</v>
       </c>
       <c r="E26" t="n">
-        <v>1341.149847805651</v>
+        <v>928.4868250374565</v>
       </c>
       <c r="F26" t="n">
-        <v>924.2554093356284</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="G26" t="n">
         <v>511.5923865674342</v>
@@ -6256,22 +6256,22 @@
         <v>3522.67679455604</v>
       </c>
       <c r="T26" t="n">
-        <v>3301.363772201453</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="U26" t="n">
-        <v>3045.651021255556</v>
+        <v>3266.964043610143</v>
       </c>
       <c r="V26" t="n">
-        <v>2703.544211959074</v>
+        <v>2924.857234313662</v>
       </c>
       <c r="W26" t="n">
-        <v>2703.544211959074</v>
+        <v>2553.858199281949</v>
       </c>
       <c r="X26" t="n">
-        <v>2314.091606892131</v>
+        <v>2164.405594215006</v>
       </c>
       <c r="Y26" t="n">
-        <v>2129.174501472438</v>
+        <v>1767.914885135607</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>211.4299322985498</v>
       </c>
       <c r="K27" t="n">
-        <v>211.4299322985498</v>
+        <v>360.1952609394043</v>
       </c>
       <c r="L27" t="n">
-        <v>751.896308831685</v>
+        <v>360.1952609394043</v>
       </c>
       <c r="M27" t="n">
-        <v>1446.067913815879</v>
+        <v>1054.366865923598</v>
       </c>
       <c r="N27" t="n">
-        <v>2170.003249623031</v>
+        <v>1778.30220173075</v>
       </c>
       <c r="O27" t="n">
         <v>2357.173157305615</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3490.470492307827</v>
+        <v>523.4979923882335</v>
       </c>
       <c r="C28" t="n">
-        <v>3490.470492307827</v>
+        <v>523.4979923882335</v>
       </c>
       <c r="D28" t="n">
-        <v>3334.837379210341</v>
+        <v>523.4979923882335</v>
       </c>
       <c r="E28" t="n">
-        <v>3179.278567069544</v>
+        <v>367.939180247436</v>
       </c>
       <c r="F28" t="n">
-        <v>3021.952632282517</v>
+        <v>367.939180247436</v>
       </c>
       <c r="G28" t="n">
-        <v>2853.922741286918</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="H28" t="n">
-        <v>2700.437202257928</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I28" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J28" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K28" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L28" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M28" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N28" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O28" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P28" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q28" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R28" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S28" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T28" t="n">
-        <v>3677.802689715586</v>
+        <v>942.5135118352682</v>
       </c>
       <c r="U28" t="n">
-        <v>3677.802689715586</v>
+        <v>757.5783146052504</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.802689715586</v>
+        <v>757.5783146052504</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.802689715586</v>
+        <v>757.5783146052504</v>
       </c>
       <c r="X28" t="n">
-        <v>3490.470492307827</v>
+        <v>523.4979923882335</v>
       </c>
       <c r="Y28" t="n">
-        <v>3490.470492307827</v>
+        <v>523.4979923882335</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2522.350002969508</v>
+        <v>2084.313670196385</v>
       </c>
       <c r="C29" t="n">
-        <v>2129.174501472438</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="D29" t="n">
-        <v>1743.733372689106</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E29" t="n">
-        <v>1341.149847805651</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F29" t="n">
-        <v>924.2554093356284</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G29" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H29" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I29" t="n">
         <v>73.55605379431174</v>
@@ -6493,22 +6493,22 @@
         <v>3677.802689715586</v>
       </c>
       <c r="T29" t="n">
-        <v>3677.802689715586</v>
+        <v>3456.489667360999</v>
       </c>
       <c r="U29" t="n">
-        <v>3677.802689715586</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="V29" t="n">
-        <v>3677.802689715586</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="W29" t="n">
-        <v>3312.297353747848</v>
+        <v>2874.261020974725</v>
       </c>
       <c r="X29" t="n">
-        <v>2922.844748680905</v>
+        <v>2484.808415907782</v>
       </c>
       <c r="Y29" t="n">
-        <v>2922.844748680905</v>
+        <v>2484.808415907782</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J30" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K30" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L30" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="M30" t="n">
-        <v>767.7276587785057</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="N30" t="n">
-        <v>1491.662994585657</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O30" t="n">
-        <v>1901.50987658722</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P30" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q30" t="n">
         <v>2357.173157305615</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3239.80797640805</v>
+        <v>724.7501106084335</v>
       </c>
       <c r="C31" t="n">
-        <v>3069.60285847404</v>
+        <v>554.5449926744227</v>
       </c>
       <c r="D31" t="n">
-        <v>2913.969745376554</v>
+        <v>398.9118795769375</v>
       </c>
       <c r="E31" t="n">
-        <v>2913.969745376554</v>
+        <v>398.9118795769375</v>
       </c>
       <c r="F31" t="n">
-        <v>2756.643810589527</v>
+        <v>241.5859447899105</v>
       </c>
       <c r="G31" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H31" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I31" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J31" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K31" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L31" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M31" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N31" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O31" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P31" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q31" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R31" t="n">
-        <v>3677.802689715586</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S31" t="n">
-        <v>3677.802689715586</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T31" t="n">
-        <v>3648.128056282708</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="U31" t="n">
-        <v>3648.128056282708</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="V31" t="n">
-        <v>3648.128056282708</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="W31" t="n">
-        <v>3648.128056282708</v>
+        <v>909.9581292997348</v>
       </c>
       <c r="X31" t="n">
-        <v>3648.128056282708</v>
+        <v>909.9581292997348</v>
       </c>
       <c r="Y31" t="n">
-        <v>3425.015995099352</v>
+        <v>909.9581292997348</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1139.50554032304</v>
+        <v>1605.174681115899</v>
       </c>
       <c r="C32" t="n">
-        <v>746.3300388259704</v>
+        <v>1211.99917961883</v>
       </c>
       <c r="D32" t="n">
-        <v>360.8889100426381</v>
+        <v>1211.99917961883</v>
       </c>
       <c r="E32" t="n">
-        <v>73.55605379431174</v>
+        <v>809.4156547353741</v>
       </c>
       <c r="F32" t="n">
-        <v>73.55605379431174</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="G32" t="n">
-        <v>73.55605379431174</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H32" t="n">
         <v>73.55605379431174</v>
@@ -6724,28 +6724,28 @@
         <v>3677.802689715586</v>
       </c>
       <c r="R32" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S32" t="n">
-        <v>3516.075217809458</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="T32" t="n">
-        <v>3294.76219545487</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="U32" t="n">
-        <v>3039.049444508973</v>
+        <v>3422.089938769689</v>
       </c>
       <c r="V32" t="n">
-        <v>2696.942635212491</v>
+        <v>3079.983129473208</v>
       </c>
       <c r="W32" t="n">
-        <v>2325.943600180779</v>
+        <v>2791.612740973638</v>
       </c>
       <c r="X32" t="n">
-        <v>1936.490995113836</v>
+        <v>2402.160135906695</v>
       </c>
       <c r="Y32" t="n">
-        <v>1540.000286034437</v>
+        <v>2005.669426827296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2181.495988346058</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C33" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D33" t="n">
-        <v>1900.752790527631</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E33" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F33" t="n">
-        <v>1639.87449352165</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G33" t="n">
-        <v>1520.082056183749</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H33" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I33" t="n">
-        <v>1394.185586204282</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J33" t="n">
-        <v>1394.185586204282</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K33" t="n">
-        <v>1394.185586204282</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L33" t="n">
-        <v>1413.008008861733</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="M33" t="n">
-        <v>2107.179613845927</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="N33" t="n">
-        <v>2831.114949653079</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O33" t="n">
-        <v>3409.985905227944</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P33" t="n">
-        <v>3409.985905227944</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q33" t="n">
-        <v>3677.802689715586</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R33" t="n">
-        <v>3670.486697645878</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S33" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T33" t="n">
-        <v>3364.616417350201</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U33" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V33" t="n">
-        <v>2932.030863228214</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W33" t="n">
-        <v>2701.913617361501</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X33" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y33" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3380.836835755322</v>
+        <v>126.0729588353514</v>
       </c>
       <c r="C34" t="n">
-        <v>3210.631717821311</v>
+        <v>126.0729588353514</v>
       </c>
       <c r="D34" t="n">
-        <v>3054.998604723825</v>
+        <v>126.0729588353514</v>
       </c>
       <c r="E34" t="n">
-        <v>2899.439792583028</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F34" t="n">
-        <v>2742.113857796001</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K34" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L34" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M34" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N34" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O34" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P34" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q34" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R34" t="n">
-        <v>3677.802689715586</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S34" t="n">
-        <v>3677.802689715586</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T34" t="n">
-        <v>3677.802689715586</v>
+        <v>828.6917018124921</v>
       </c>
       <c r="U34" t="n">
-        <v>3677.802689715586</v>
+        <v>828.6917018124921</v>
       </c>
       <c r="V34" t="n">
-        <v>3566.044854446623</v>
+        <v>828.6917018124921</v>
       </c>
       <c r="W34" t="n">
-        <v>3566.044854446623</v>
+        <v>545.3612997436696</v>
       </c>
       <c r="X34" t="n">
-        <v>3566.044854446623</v>
+        <v>311.2809775266527</v>
       </c>
       <c r="Y34" t="n">
-        <v>3566.044854446623</v>
+        <v>311.2809775266527</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1724.245851417981</v>
+        <v>2119.766478086052</v>
       </c>
       <c r="C35" t="n">
-        <v>1331.070349920912</v>
+        <v>1726.590976588983</v>
       </c>
       <c r="D35" t="n">
-        <v>1331.070349920912</v>
+        <v>1341.149847805651</v>
       </c>
       <c r="E35" t="n">
-        <v>928.4868250374565</v>
+        <v>1341.149847805651</v>
       </c>
       <c r="F35" t="n">
-        <v>511.5923865674342</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="G35" t="n">
         <v>511.5923865674342</v>
@@ -6937,19 +6937,19 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J35" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473729</v>
       </c>
       <c r="K35" t="n">
-        <v>681.0612104920356</v>
+        <v>681.061210492036</v>
       </c>
       <c r="L35" t="n">
         <v>1251.67373183635</v>
       </c>
       <c r="M35" t="n">
-        <v>1883.677129957883</v>
+        <v>1883.677129957884</v>
       </c>
       <c r="N35" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O35" t="n">
         <v>3021.445901261525</v>
@@ -6961,28 +6961,28 @@
         <v>3677.802689715587</v>
       </c>
       <c r="R35" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S35" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="T35" t="n">
-        <v>3623.789755603915</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="U35" t="n">
-        <v>3623.789755603915</v>
+        <v>3422.08993876969</v>
       </c>
       <c r="V35" t="n">
-        <v>3281.682946307433</v>
+        <v>3079.983129473208</v>
       </c>
       <c r="W35" t="n">
-        <v>2910.683911275721</v>
+        <v>3079.983129473208</v>
       </c>
       <c r="X35" t="n">
-        <v>2521.231306208777</v>
+        <v>2690.530524406265</v>
       </c>
       <c r="Y35" t="n">
-        <v>2124.740597129378</v>
+        <v>2294.039815326866</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J36" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K36" t="n">
-        <v>435.6120971457461</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L36" t="n">
-        <v>976.0784736788813</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.250078663075</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.250078663075</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O36" t="n">
-        <v>1670.250078663075</v>
+        <v>1692.823307757985</v>
       </c>
       <c r="P36" t="n">
-        <v>2089.356372817973</v>
+        <v>2148.486588476379</v>
       </c>
       <c r="Q36" t="n">
         <v>2357.173157305615</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2574.083966800403</v>
+        <v>386.4408007221363</v>
       </c>
       <c r="C37" t="n">
-        <v>2574.083966800403</v>
+        <v>386.4408007221363</v>
       </c>
       <c r="D37" t="n">
-        <v>2574.083966800403</v>
+        <v>386.4408007221363</v>
       </c>
       <c r="E37" t="n">
-        <v>2574.083966800403</v>
+        <v>230.8819885813388</v>
       </c>
       <c r="F37" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G37" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H37" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I37" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J37" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K37" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L37" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M37" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N37" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O37" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P37" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q37" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R37" t="n">
-        <v>3594.331463761379</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S37" t="n">
-        <v>3594.331463761379</v>
+        <v>1120.958566661436</v>
       </c>
       <c r="T37" t="n">
-        <v>3359.570198887151</v>
+        <v>1120.958566661436</v>
       </c>
       <c r="U37" t="n">
-        <v>3074.143634196595</v>
+        <v>1120.958566661436</v>
       </c>
       <c r="V37" t="n">
-        <v>2808.16428901742</v>
+        <v>854.9792214822598</v>
       </c>
       <c r="W37" t="n">
-        <v>2808.16428901742</v>
+        <v>571.6488194134375</v>
       </c>
       <c r="X37" t="n">
-        <v>2574.083966800403</v>
+        <v>571.6488194134375</v>
       </c>
       <c r="Y37" t="n">
-        <v>2574.083966800403</v>
+        <v>571.6488194134375</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1139.50554032304</v>
+        <v>1965.239699666589</v>
       </c>
       <c r="C38" t="n">
-        <v>746.3300388259704</v>
+        <v>1572.064198169519</v>
       </c>
       <c r="D38" t="n">
-        <v>746.3300388259704</v>
+        <v>1572.064198169519</v>
       </c>
       <c r="E38" t="n">
-        <v>746.3300388259704</v>
+        <v>1169.480673286064</v>
       </c>
       <c r="F38" t="n">
-        <v>746.3300388259704</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G38" t="n">
         <v>392.5212162653519</v>
@@ -7198,28 +7198,28 @@
         <v>3677.802689715586</v>
       </c>
       <c r="R38" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S38" t="n">
-        <v>3516.075217809458</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="T38" t="n">
-        <v>3294.76219545487</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="U38" t="n">
-        <v>3039.049444508973</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="V38" t="n">
-        <v>2696.942635212491</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="W38" t="n">
-        <v>2325.943600180779</v>
+        <v>3151.677759524328</v>
       </c>
       <c r="X38" t="n">
-        <v>1936.490995113836</v>
+        <v>2762.225154457385</v>
       </c>
       <c r="Y38" t="n">
-        <v>1540.000286034437</v>
+        <v>2365.734445377986</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J39" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K39" t="n">
-        <v>435.6120971457461</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="L39" t="n">
-        <v>976.0784736788813</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.250078663075</v>
+        <v>905.6015372827437</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.250078663075</v>
+        <v>1629.536873089895</v>
       </c>
       <c r="O39" t="n">
-        <v>1670.250078663075</v>
+        <v>2208.407828664761</v>
       </c>
       <c r="P39" t="n">
-        <v>2125.91335938147</v>
+        <v>2208.407828664761</v>
       </c>
       <c r="Q39" t="n">
         <v>2357.173157305615</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.55605379431174</v>
+        <v>429.0554937240487</v>
       </c>
       <c r="C40" t="n">
-        <v>73.55605379431174</v>
+        <v>386.5151016788241</v>
       </c>
       <c r="D40" t="n">
-        <v>73.55605379431174</v>
+        <v>230.8819885813388</v>
       </c>
       <c r="E40" t="n">
-        <v>73.55605379431174</v>
+        <v>230.8819885813388</v>
       </c>
       <c r="F40" t="n">
         <v>73.55605379431174</v>
@@ -7350,7 +7350,7 @@
         <v>1009.007396819615</v>
       </c>
       <c r="P40" t="n">
-        <v>1155.455528488098</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q40" t="n">
         <v>1177.274776709496</v>
@@ -7359,25 +7359,25 @@
         <v>1177.274776709496</v>
       </c>
       <c r="S40" t="n">
-        <v>1177.274776709496</v>
+        <v>978.3652409720469</v>
       </c>
       <c r="T40" t="n">
-        <v>942.5135118352684</v>
+        <v>978.3652409720469</v>
       </c>
       <c r="U40" t="n">
-        <v>657.0869471447124</v>
+        <v>978.3652409720469</v>
       </c>
       <c r="V40" t="n">
-        <v>391.1076019655367</v>
+        <v>712.3858957928711</v>
       </c>
       <c r="W40" t="n">
-        <v>107.7771998967143</v>
+        <v>429.0554937240487</v>
       </c>
       <c r="X40" t="n">
-        <v>73.55605379431174</v>
+        <v>429.0554937240487</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.55605379431174</v>
+        <v>429.0554937240487</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2403.278832667425</v>
+        <v>1919.036743663155</v>
       </c>
       <c r="C41" t="n">
-        <v>2010.103331170356</v>
+        <v>1525.861242166086</v>
       </c>
       <c r="D41" t="n">
-        <v>1624.662202387024</v>
+        <v>1140.420113382753</v>
       </c>
       <c r="E41" t="n">
-        <v>1222.078677503568</v>
+        <v>737.8365884992979</v>
       </c>
       <c r="F41" t="n">
-        <v>805.184239033546</v>
+        <v>737.8365884992979</v>
       </c>
       <c r="G41" t="n">
-        <v>392.5212162653519</v>
+        <v>325.1735657311038</v>
       </c>
       <c r="H41" t="n">
         <v>73.55605379431174</v>
@@ -7411,19 +7411,19 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J41" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473729</v>
       </c>
       <c r="K41" t="n">
-        <v>681.0612104920356</v>
+        <v>681.061210492036</v>
       </c>
       <c r="L41" t="n">
         <v>1251.67373183635</v>
       </c>
       <c r="M41" t="n">
-        <v>1883.677129957883</v>
+        <v>1883.677129957884</v>
       </c>
       <c r="N41" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O41" t="n">
         <v>3021.445901261525</v>
@@ -7435,28 +7435,28 @@
         <v>3677.802689715587</v>
       </c>
       <c r="R41" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S41" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="T41" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.488362023107</v>
+        <v>3422.08993876969</v>
       </c>
       <c r="V41" t="n">
-        <v>3073.381552726625</v>
+        <v>3079.983129473208</v>
       </c>
       <c r="W41" t="n">
-        <v>2702.382517694913</v>
+        <v>2708.984094441495</v>
       </c>
       <c r="X41" t="n">
-        <v>2702.382517694913</v>
+        <v>2319.531489374552</v>
       </c>
       <c r="Y41" t="n">
-        <v>2702.382517694913</v>
+        <v>2319.531489374552</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2181.495988346059</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C42" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D42" t="n">
-        <v>1900.752790527632</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E42" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F42" t="n">
-        <v>1639.874493521651</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G42" t="n">
-        <v>1520.082056183749</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H42" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I42" t="n">
-        <v>1394.185586204283</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J42" t="n">
-        <v>1394.185586204283</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K42" t="n">
-        <v>1756.241629555717</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L42" t="n">
-        <v>2296.708006088852</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M42" t="n">
-        <v>2296.708006088852</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N42" t="n">
-        <v>2375.451668934685</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O42" t="n">
-        <v>2954.32262450955</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P42" t="n">
-        <v>3409.985905227945</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q42" t="n">
-        <v>3677.802689715587</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R42" t="n">
-        <v>3670.486697645879</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S42" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T42" t="n">
-        <v>3364.616417350202</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U42" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V42" t="n">
-        <v>2932.030863228215</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W42" t="n">
-        <v>2701.913617361502</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X42" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y42" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.55605379431174</v>
+        <v>286.7147590285665</v>
       </c>
       <c r="C43" t="n">
-        <v>73.55605379431174</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="D43" t="n">
-        <v>73.55605379431174</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="E43" t="n">
-        <v>73.55605379431174</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="F43" t="n">
-        <v>73.55605379431174</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="G43" t="n">
-        <v>73.55605379431174</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="H43" t="n">
         <v>73.55605379431174</v>
@@ -7587,7 +7587,7 @@
         <v>1009.007396819615</v>
       </c>
       <c r="P43" t="n">
-        <v>1155.455528488098</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q43" t="n">
         <v>1177.274776709496</v>
@@ -7596,25 +7596,25 @@
         <v>1177.274776709496</v>
       </c>
       <c r="S43" t="n">
-        <v>1143.053630607094</v>
+        <v>978.3652409720469</v>
       </c>
       <c r="T43" t="n">
-        <v>908.2923657328658</v>
+        <v>978.3652409720469</v>
       </c>
       <c r="U43" t="n">
-        <v>622.8658010423098</v>
+        <v>978.3652409720469</v>
       </c>
       <c r="V43" t="n">
-        <v>356.8864558631341</v>
+        <v>978.3652409720469</v>
       </c>
       <c r="W43" t="n">
-        <v>73.55605379431174</v>
+        <v>695.0348389032245</v>
       </c>
       <c r="X43" t="n">
-        <v>73.55605379431174</v>
+        <v>695.0348389032245</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.55605379431174</v>
+        <v>471.9227777198678</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2509.818199893079</v>
+        <v>2084.313670196385</v>
       </c>
       <c r="C44" t="n">
-        <v>2129.174501472438</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="D44" t="n">
-        <v>1743.733372689106</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E44" t="n">
-        <v>1341.149847805651</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F44" t="n">
-        <v>924.2554093356284</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G44" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H44" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I44" t="n">
         <v>73.55605379431174</v>
@@ -7675,25 +7675,25 @@
         <v>3677.802689715587</v>
       </c>
       <c r="S44" t="n">
-        <v>3677.802689715587</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="T44" t="n">
-        <v>3677.802689715587</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="U44" t="n">
-        <v>3677.802689715587</v>
+        <v>3266.964043610144</v>
       </c>
       <c r="V44" t="n">
-        <v>3677.802689715587</v>
+        <v>2924.857234313662</v>
       </c>
       <c r="W44" t="n">
-        <v>3306.803654683874</v>
+        <v>2924.857234313662</v>
       </c>
       <c r="X44" t="n">
-        <v>3306.803654683874</v>
+        <v>2535.404629246719</v>
       </c>
       <c r="Y44" t="n">
-        <v>2910.312945604475</v>
+        <v>2138.91392016732</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2181.495988346059</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C45" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D45" t="n">
-        <v>1900.752790527632</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E45" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F45" t="n">
-        <v>1639.874493521651</v>
+        <v>319.2449611116798</v>
       </c>
       <c r="G45" t="n">
-        <v>1520.082056183749</v>
+        <v>199.4525237737779</v>
       </c>
       <c r="H45" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I45" t="n">
-        <v>1394.185586204283</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J45" t="n">
-        <v>1394.185586204283</v>
+        <v>181.608176861986</v>
       </c>
       <c r="K45" t="n">
-        <v>1394.185586204283</v>
+        <v>543.6642202134204</v>
       </c>
       <c r="L45" t="n">
-        <v>1934.651962737418</v>
+        <v>1084.130596746556</v>
       </c>
       <c r="M45" t="n">
-        <v>1934.651962737418</v>
+        <v>1778.30220173075</v>
       </c>
       <c r="N45" t="n">
-        <v>2643.268453422326</v>
+        <v>1778.30220173075</v>
       </c>
       <c r="O45" t="n">
-        <v>3222.139408997192</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="P45" t="n">
-        <v>3677.802689715587</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="Q45" t="n">
-        <v>3677.802689715587</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R45" t="n">
-        <v>3670.486697645879</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S45" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T45" t="n">
-        <v>3364.616417350202</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U45" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V45" t="n">
-        <v>2932.030863228215</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W45" t="n">
-        <v>2701.913617361502</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X45" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y45" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2574.083966800403</v>
+        <v>562.7123566333165</v>
       </c>
       <c r="C46" t="n">
-        <v>2574.083966800403</v>
+        <v>392.5072386993057</v>
       </c>
       <c r="D46" t="n">
-        <v>2574.083966800403</v>
+        <v>236.8741256018205</v>
       </c>
       <c r="E46" t="n">
-        <v>2574.083966800403</v>
+        <v>236.8741256018205</v>
       </c>
       <c r="F46" t="n">
-        <v>2574.083966800403</v>
+        <v>236.8741256018205</v>
       </c>
       <c r="G46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K46" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L46" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483129</v>
       </c>
       <c r="M46" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N46" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978014</v>
       </c>
       <c r="O46" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P46" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q46" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R46" t="n">
-        <v>3677.802689715587</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S46" t="n">
-        <v>3677.802689715587</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T46" t="n">
-        <v>3443.041424841359</v>
+        <v>828.6917018124923</v>
       </c>
       <c r="U46" t="n">
-        <v>3157.614860150803</v>
+        <v>828.6917018124923</v>
       </c>
       <c r="V46" t="n">
-        <v>2891.635514971627</v>
+        <v>562.7123566333165</v>
       </c>
       <c r="W46" t="n">
-        <v>2608.305112902805</v>
+        <v>562.7123566333165</v>
       </c>
       <c r="X46" t="n">
-        <v>2574.083966800403</v>
+        <v>562.7123566333165</v>
       </c>
       <c r="Y46" t="n">
-        <v>2574.083966800403</v>
+        <v>562.7123566333165</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7990,13 +7990,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O2" t="n">
-        <v>359.0336792490003</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8060,13 +8060,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
@@ -8075,10 +8075,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>476.2460796729735</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8221,19 +8221,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>270.4260094517309</v>
+        <v>451.8641826900545</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8297,10 +8297,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
@@ -8309,13 +8309,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P6" t="n">
-        <v>373.2845452201562</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8464,13 +8464,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>458.1505014870046</v>
       </c>
       <c r="O8" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8531,16 +8531,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>176.1461757257082</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>490.5190850554636</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8549,7 +8549,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8774,22 +8774,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>32.58530581164346</v>
       </c>
       <c r="M12" t="n">
-        <v>104.3956441575989</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>267.7245911080776</v>
       </c>
       <c r="P12" t="n">
-        <v>36.53597895871121</v>
+        <v>36.53597895871122</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9014,13 +9014,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202633</v>
       </c>
       <c r="N15" t="n">
-        <v>16.52629002932575</v>
+        <v>322.5119745677376</v>
       </c>
       <c r="O15" t="n">
-        <v>219.2274632321362</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>57.43547118736296</v>
+        <v>72.02626482444778</v>
       </c>
       <c r="K18" t="n">
         <v>46.85259463716364</v>
@@ -9251,10 +9251,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>25.31646007202633</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>732.3005230443841</v>
+        <v>16.52629002932576</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>197.3241826393779</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>25.31646007202632</v>
+        <v>550.3071064522877</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932578</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>29.70708112738966</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>46.85259463716364</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>322.1198584834541</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202633</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932576</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>554.6977275076511</v>
       </c>
       <c r="P24" t="n">
-        <v>36.53597895871121</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9956,10 +9956,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>46.85259463716364</v>
+        <v>197.1206033652995</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>32.58530581164346</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9968,10 +9968,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>218.7675939380809</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>36.53597895871121</v>
+        <v>36.53597895871122</v>
       </c>
       <c r="Q27" t="n">
         <v>57.19856433495293</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>46.85259463716364</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>32.58530581164345</v>
+        <v>32.58530581164346</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202633</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>502.7244323270314</v>
       </c>
       <c r="O30" t="n">
-        <v>443.693830623918</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>46.85259463716364</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>51.59785395048279</v>
+        <v>32.58530581164346</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202633</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>502.7244323270314</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>36.53597895871121</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,19 +10673,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202633</v>
       </c>
       <c r="N36" t="n">
-        <v>16.52629002932575</v>
+        <v>16.52629002932576</v>
       </c>
       <c r="O36" t="n">
-        <v>29.70708112738964</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>459.8756700242643</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>267.9930783038777</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>46.85259463716364</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>32.58530581164346</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>16.52629002932575</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>29.70708112738964</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>36.53597895871122</v>
       </c>
       <c r="Q39" t="n">
-        <v>290.7943198138873</v>
+        <v>207.4665730630883</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>518.783448109349</v>
       </c>
       <c r="M42" t="n">
-        <v>25.31646007202632</v>
+        <v>25.31646007202633</v>
       </c>
       <c r="N42" t="n">
-        <v>96.06534340895423</v>
+        <v>16.52629002932576</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11375,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>57.43547118736294</v>
+        <v>166.5790298415794</v>
       </c>
       <c r="K45" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>25.31646007202629</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>732.3005230443844</v>
+        <v>16.52629002932572</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>36.53597895871118</v>
       </c>
       <c r="Q45" t="n">
         <v>57.19856433495291</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>141.3491792965125</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>134.3733024676431</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>41.72363631053994</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H13" t="n">
         <v>151.9506836387004</v>
@@ -23469,10 +23469,10 @@
         <v>196.9204403800746</v>
       </c>
       <c r="T13" t="n">
-        <v>3.911357558627884</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.535560979117118</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>219.0998921310412</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>313.2347972101709</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>130.4100948034059</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
@@ -23661,7 +23661,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>53.05104480006283</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
@@ -23703,10 +23703,10 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>34.32031346241317</v>
       </c>
       <c r="T16" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.4480258891720155</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>236.5266430110109</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S17" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T17" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>51.04747444523287</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>151.9506836387004</v>
@@ -23940,22 +23940,22 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>8.190245052980174</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.535560979117118</v>
+        <v>6.535560979117129</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>223.5308657433626</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>274.0888710219446</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>32.22430319154948</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24141,7 +24141,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H22" t="n">
         <v>151.9506836387004</v>
@@ -24186,16 +24186,16 @@
         <v>282.5722990436504</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>5.454481805513694</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>382.7240493989397</v>
       </c>
       <c r="H23" t="n">
         <v>315.7755108463297</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.535560979117118</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S23" t="n">
         <v>153.5746362079504</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>44.03830819542264</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>133.6214178385272</v>
       </c>
       <c r="G25" t="n">
         <v>166.3495920856427</v>
       </c>
       <c r="H25" t="n">
-        <v>21.85109309881372</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J25" t="n">
         <v>14.38465326559117</v>
@@ -24417,22 +24417,22 @@
         <v>196.9204403800746</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>353.2574548738337</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6.535560979117118</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>209.4578676231091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,19 +24606,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>196.9204403800746</v>
       </c>
       <c r="T28" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5722990436504</v>
+        <v>99.48645378593281</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24666,7 +24666,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>46.28064356116448</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.535560979117118</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S29" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T29" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>5.43876207333426</v>
+        <v>44.03830819542276</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>125.0897031029503</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>196.9204403800746</v>
       </c>
       <c r="T31" t="n">
-        <v>203.035765126936</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U31" t="n">
         <v>282.5722990436504</v>
@@ -24900,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>128.5372090350191</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>114.0981619487778</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>408.5363925405122</v>
       </c>
       <c r="H32" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>117.8804585990615</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>81.80236006682179</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>102.0114880287602</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H34" t="n">
         <v>151.9506836387004</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>196.9204403800746</v>
       </c>
       <c r="T34" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5722990436504</v>
       </c>
       <c r="V34" t="n">
-        <v>152.6792948111103</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>223.9591943858777</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S35" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T35" t="n">
-        <v>172.1626483396028</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25320,10 +25320,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.3495920856427</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>30.04707822788306</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S37" t="n">
-        <v>196.9204403800746</v>
+        <v>141.167392432495</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25399,13 +25399,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>52.07202417532955</v>
       </c>
       <c r="G38" t="n">
-        <v>58.26565820549985</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>126.3880786298982</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.3495920856427</v>
@@ -25599,13 +25599,13 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S40" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>197.8605843534682</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.3771500770706</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>66.67417402890561</v>
       </c>
       <c r="I41" t="n">
         <v>117.8804585990615</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S41" t="n">
         <v>153.5746362079504</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>109.4266322114589</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25803,7 +25803,7 @@
         <v>166.3495920856427</v>
       </c>
       <c r="H43" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>125.0897031029503</v>
@@ -25836,16 +25836,16 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S43" t="n">
-        <v>163.041505738696</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>342.4355507830579</v>
       </c>
       <c r="C44" t="n">
-        <v>12.40648504566485</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>6.535560979117101</v>
       </c>
       <c r="S44" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.0998921310412</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3495920856427</v>
+        <v>4.664700996209064</v>
       </c>
       <c r="H46" t="n">
         <v>151.9506836387004</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>196.9204403800746</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>197.8605843534686</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>598266.7230924951</v>
+        <v>598266.723092495</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>598266.7230924951</v>
+        <v>598266.723092495</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>598266.7230924951</v>
+        <v>598266.7230924949</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>598266.7230924951</v>
+        <v>598266.723092495</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>598266.723092495</v>
+        <v>598266.7230924951</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>598266.723092495</v>
+        <v>598266.7230924951</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577062.9698987419</v>
+        <v>577062.9698987417</v>
       </c>
       <c r="C2" t="n">
-        <v>577062.9698987416</v>
+        <v>577062.9698987417</v>
       </c>
       <c r="D2" t="n">
-        <v>577062.9698987417</v>
+        <v>577062.9698987418</v>
       </c>
       <c r="E2" t="n">
-        <v>451449.2418519395</v>
+        <v>451449.2418519394</v>
       </c>
       <c r="F2" t="n">
+        <v>451449.2418519393</v>
+      </c>
+      <c r="G2" t="n">
+        <v>451449.2418519388</v>
+      </c>
+      <c r="H2" t="n">
+        <v>451449.2418519394</v>
+      </c>
+      <c r="I2" t="n">
         <v>451449.2418519392</v>
-      </c>
-      <c r="G2" t="n">
-        <v>451449.241851939</v>
-      </c>
-      <c r="H2" t="n">
-        <v>451449.2418519395</v>
-      </c>
-      <c r="I2" t="n">
-        <v>451449.2418519394</v>
       </c>
       <c r="J2" t="n">
         <v>451449.2418519392</v>
       </c>
       <c r="K2" t="n">
+        <v>451449.2418519391</v>
+      </c>
+      <c r="L2" t="n">
+        <v>451449.2418519392</v>
+      </c>
+      <c r="M2" t="n">
         <v>451449.2418519393</v>
       </c>
-      <c r="L2" t="n">
-        <v>451449.2418519393</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>451449.2418519394</v>
       </c>
-      <c r="N2" t="n">
-        <v>451449.2418519392</v>
-      </c>
       <c r="O2" t="n">
-        <v>451449.2418519393</v>
+        <v>451449.2418519394</v>
       </c>
       <c r="P2" t="n">
-        <v>451449.2418519393</v>
+        <v>451449.2418519395</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81748.51785715736</v>
+        <v>81748.51785715738</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,10 +26435,10 @@
         <v>62792.28270658745</v>
       </c>
       <c r="H4" t="n">
+        <v>62792.28270658746</v>
+      </c>
+      <c r="I4" t="n">
         <v>62792.28270658745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>62792.28270658746</v>
       </c>
       <c r="J4" t="n">
         <v>62792.28270658746</v>
@@ -26447,7 +26447,7 @@
         <v>62792.28270658745</v>
       </c>
       <c r="L4" t="n">
-        <v>62792.28270658746</v>
+        <v>62792.28270658745</v>
       </c>
       <c r="M4" t="n">
         <v>62792.28270658746</v>
@@ -26456,7 +26456,7 @@
         <v>62792.28270658746</v>
       </c>
       <c r="O4" t="n">
-        <v>62792.28270658746</v>
+        <v>62792.28270658745</v>
       </c>
       <c r="P4" t="n">
         <v>62792.28270658746</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97705.81132503346</v>
+        <v>97705.81132503328</v>
       </c>
       <c r="C6" t="n">
-        <v>295901.6173167781</v>
+        <v>295901.6173167783</v>
       </c>
       <c r="D6" t="n">
         <v>295901.6173167783</v>
       </c>
       <c r="E6" t="n">
-        <v>133255.2992160813</v>
+        <v>132862.756315935</v>
       </c>
       <c r="F6" t="n">
-        <v>330071.5317825834</v>
+        <v>329678.9888824372</v>
       </c>
       <c r="G6" t="n">
-        <v>330071.5317825832</v>
+        <v>329678.9888824368</v>
       </c>
       <c r="H6" t="n">
-        <v>330071.5317825837</v>
+        <v>329678.9888824373</v>
       </c>
       <c r="I6" t="n">
-        <v>330071.5317825836</v>
+        <v>329678.9888824372</v>
       </c>
       <c r="J6" t="n">
-        <v>175332.09741698</v>
+        <v>174939.5545168338</v>
       </c>
       <c r="K6" t="n">
-        <v>330071.5317825835</v>
+        <v>329678.988882437</v>
       </c>
       <c r="L6" t="n">
-        <v>330071.5317825835</v>
+        <v>329678.9888824372</v>
       </c>
       <c r="M6" t="n">
-        <v>248323.0139254262</v>
+        <v>247930.4710252799</v>
       </c>
       <c r="N6" t="n">
-        <v>330071.5317825834</v>
+        <v>329678.9888824373</v>
       </c>
       <c r="O6" t="n">
-        <v>330071.5317825835</v>
+        <v>329678.9888824373</v>
       </c>
       <c r="P6" t="n">
-        <v>330071.5317825835</v>
+        <v>329678.9888824374</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.0385461596016</v>
+        <v>328.0385461596017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>217.7465999342214</v>
       </c>
       <c r="V2" t="n">
-        <v>237.9918109187883</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>146.9573614306417</v>
+        <v>105.8096217419964</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27675,13 +27675,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>108.8196940238511</v>
+        <v>55.78150944532325</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27791,13 +27791,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>195.7825077669051</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>181.8059770825967</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>347.396979010653</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>346.5680573845451</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>16.28929283276776</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28061,19 +28061,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>157.3198846849506</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -31752,25 +31752,25 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H11" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I11" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J11" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K11" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L11" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M11" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N11" t="n">
         <v>88.27687718048601</v>
@@ -31779,7 +31779,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P11" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q11" t="n">
         <v>53.42585919394845</v>
@@ -31791,10 +31791,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T11" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31846,19 +31846,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L12" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M12" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N12" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O12" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P12" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q12" t="n">
         <v>33.78958882096106</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H13" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I13" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J13" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K13" t="n">
         <v>25.78321732801052</v>
@@ -31937,19 +31937,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P13" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R13" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S13" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U13" t="n">
         <v>0.01210479686761059</v>
@@ -31989,25 +31989,25 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H14" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I14" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J14" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K14" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L14" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M14" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N14" t="n">
         <v>88.27687718048601</v>
@@ -32016,7 +32016,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P14" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q14" t="n">
         <v>53.42585919394845</v>
@@ -32028,10 +32028,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T14" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32083,19 +32083,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L15" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M15" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N15" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O15" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P15" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q15" t="n">
         <v>33.78958882096106</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H16" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I16" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J16" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K16" t="n">
         <v>25.78321732801052</v>
@@ -32174,19 +32174,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P16" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R16" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S16" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U16" t="n">
         <v>0.01210479686761059</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646528</v>
       </c>
       <c r="H20" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844502</v>
       </c>
       <c r="I20" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J20" t="n">
-        <v>41.99005004467951</v>
+        <v>41.99005004467949</v>
       </c>
       <c r="K20" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939526</v>
       </c>
       <c r="L20" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796502</v>
       </c>
       <c r="M20" t="n">
-        <v>86.87121017873994</v>
+        <v>86.8712101787399</v>
       </c>
       <c r="N20" t="n">
-        <v>88.27687718048601</v>
+        <v>88.27687718048598</v>
       </c>
       <c r="O20" t="n">
-        <v>83.35735188400999</v>
+        <v>83.35735188400996</v>
       </c>
       <c r="P20" t="n">
-        <v>71.14357129250762</v>
+        <v>71.14357129250759</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.42585919394845</v>
+        <v>53.42585919394844</v>
       </c>
       <c r="R20" t="n">
-        <v>31.07742359821616</v>
+        <v>31.07742359821615</v>
       </c>
       <c r="S20" t="n">
         <v>11.27378330040954</v>
       </c>
       <c r="T20" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2647067843313332</v>
+        <v>0.2647067843313331</v>
       </c>
       <c r="H21" t="n">
-        <v>2.556510259199981</v>
+        <v>2.55651025919998</v>
       </c>
       <c r="I21" t="n">
-        <v>9.113808144741077</v>
+        <v>9.113808144741075</v>
       </c>
       <c r="J21" t="n">
-        <v>25.00898614597039</v>
+        <v>25.00898614597038</v>
       </c>
       <c r="K21" t="n">
-        <v>42.74434069616971</v>
+        <v>42.74434069616969</v>
       </c>
       <c r="L21" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527476</v>
       </c>
       <c r="M21" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728557</v>
       </c>
       <c r="N21" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484088</v>
       </c>
       <c r="O21" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149923</v>
       </c>
       <c r="P21" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060342</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.78958882096106</v>
+        <v>33.78958882096104</v>
       </c>
       <c r="R21" t="n">
         <v>16.43504052190506</v>
       </c>
       <c r="S21" t="n">
-        <v>4.916812419487698</v>
+        <v>4.916812419487696</v>
       </c>
       <c r="T21" t="n">
         <v>1.066954100002171</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H22" t="n">
-        <v>1.973081889420525</v>
+        <v>1.973081889420524</v>
       </c>
       <c r="I22" t="n">
-        <v>6.673778006342633</v>
+        <v>6.67377800634263</v>
       </c>
       <c r="J22" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K22" t="n">
-        <v>25.78321732801052</v>
+        <v>25.78321732801051</v>
       </c>
       <c r="L22" t="n">
-        <v>32.99364132881723</v>
+        <v>32.99364132881722</v>
       </c>
       <c r="M22" t="n">
         <v>34.78716873136818</v>
       </c>
       <c r="N22" t="n">
-        <v>33.96000761208149</v>
+        <v>33.96000761208148</v>
       </c>
       <c r="O22" t="n">
-        <v>31.36756361626821</v>
+        <v>31.3675636162682</v>
       </c>
       <c r="P22" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R22" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200312</v>
       </c>
       <c r="S22" t="n">
-        <v>3.867482599201577</v>
+        <v>3.867482599201576</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.9482090879628278</v>
       </c>
       <c r="U22" t="n">
         <v>0.01210479686761059</v>
@@ -32700,25 +32700,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H23" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I23" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J23" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K23" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L23" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M23" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N23" t="n">
         <v>88.27687718048601</v>
@@ -32727,7 +32727,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P23" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q23" t="n">
         <v>53.42585919394845</v>
@@ -32739,10 +32739,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T23" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32794,19 +32794,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L24" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M24" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N24" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O24" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P24" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q24" t="n">
         <v>33.78958882096106</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H25" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I25" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J25" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K25" t="n">
         <v>25.78321732801052</v>
@@ -32885,19 +32885,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P25" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R25" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S25" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U25" t="n">
         <v>0.01210479686761059</v>
@@ -32937,25 +32937,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H26" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I26" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J26" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K26" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L26" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M26" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N26" t="n">
         <v>88.27687718048601</v>
@@ -32964,7 +32964,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P26" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q26" t="n">
         <v>53.42585919394845</v>
@@ -32976,10 +32976,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T26" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33031,19 +33031,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L27" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M27" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N27" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O27" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P27" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q27" t="n">
         <v>33.78958882096106</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H28" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I28" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J28" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K28" t="n">
         <v>25.78321732801052</v>
@@ -33122,19 +33122,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P28" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R28" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S28" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U28" t="n">
         <v>0.01210479686761059</v>
@@ -33174,25 +33174,25 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H29" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I29" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J29" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K29" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L29" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M29" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N29" t="n">
         <v>88.27687718048601</v>
@@ -33201,7 +33201,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P29" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q29" t="n">
         <v>53.42585919394845</v>
@@ -33213,10 +33213,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T29" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33268,19 +33268,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L30" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M30" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N30" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O30" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P30" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q30" t="n">
         <v>33.78958882096106</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H31" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I31" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J31" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K31" t="n">
         <v>25.78321732801052</v>
@@ -33359,19 +33359,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P31" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R31" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S31" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U31" t="n">
         <v>0.01210479686761059</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H32" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I32" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J32" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K32" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L32" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M32" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N32" t="n">
         <v>88.27687718048601</v>
@@ -33438,7 +33438,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P32" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q32" t="n">
         <v>53.42585919394845</v>
@@ -33450,10 +33450,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T32" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33505,19 +33505,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L33" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M33" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N33" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O33" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P33" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q33" t="n">
         <v>33.78958882096106</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H34" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I34" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J34" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K34" t="n">
         <v>25.78321732801052</v>
@@ -33596,19 +33596,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P34" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R34" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S34" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U34" t="n">
         <v>0.01210479686761059</v>
@@ -33648,25 +33648,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H35" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I35" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J35" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K35" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L35" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M35" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N35" t="n">
         <v>88.27687718048601</v>
@@ -33675,7 +33675,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P35" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q35" t="n">
         <v>53.42585919394845</v>
@@ -33687,10 +33687,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T35" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33742,19 +33742,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L36" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M36" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N36" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O36" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P36" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q36" t="n">
         <v>33.78958882096106</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H37" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I37" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J37" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K37" t="n">
         <v>25.78321732801052</v>
@@ -33833,19 +33833,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P37" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R37" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S37" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U37" t="n">
         <v>0.01210479686761059</v>
@@ -33885,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H38" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I38" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J38" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K38" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L38" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M38" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N38" t="n">
         <v>88.27687718048601</v>
@@ -33912,7 +33912,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P38" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q38" t="n">
         <v>53.42585919394845</v>
@@ -33924,10 +33924,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T38" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33979,19 +33979,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L39" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M39" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N39" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O39" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P39" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q39" t="n">
         <v>33.78958882096106</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H40" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I40" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J40" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K40" t="n">
         <v>25.78321732801052</v>
@@ -34070,19 +34070,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P40" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R40" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S40" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U40" t="n">
         <v>0.01210479686761059</v>
@@ -34122,25 +34122,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H41" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I41" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J41" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K41" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L41" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M41" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N41" t="n">
         <v>88.27687718048601</v>
@@ -34149,7 +34149,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P41" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q41" t="n">
         <v>53.42585919394845</v>
@@ -34161,10 +34161,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T41" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34216,19 +34216,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L42" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M42" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N42" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O42" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P42" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q42" t="n">
         <v>33.78958882096106</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H43" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I43" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J43" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K43" t="n">
         <v>25.78321732801052</v>
@@ -34307,19 +34307,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P43" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R43" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S43" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U43" t="n">
         <v>0.01210479686761059</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34710,13 +34710,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O2" t="n">
-        <v>209.4698418249039</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34780,13 +34780,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>389.1627148536588</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>117.1778397212393</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35017,10 +35017,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
@@ -35029,13 +35029,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P6" t="n">
-        <v>286.2011804008416</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35184,13 +35184,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>309.0320101492205</v>
       </c>
       <c r="O8" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.70171839237487</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>400.4587381985453</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35269,7 +35269,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35494,22 +35494,22 @@
         <v>365.713175102459</v>
       </c>
       <c r="L12" t="n">
-        <v>545.9256328617528</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>79.07918408557261</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N12" t="n">
         <v>731.2478139466177</v>
       </c>
       <c r="O12" t="n">
-        <v>584.7181369443084</v>
+        <v>238.017509980688</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>545.9256328617528</v>
       </c>
       <c r="M15" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>305.9856845384118</v>
       </c>
       <c r="O15" t="n">
-        <v>189.5203821047466</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P15" t="n">
         <v>460.2659401195907</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>14.59079363708482</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>545.9256328617528</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N18" t="n">
-        <v>715.7742330150584</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>584.7181369443084</v>
@@ -36132,7 +36132,7 @@
         <v>638.3872708298314</v>
       </c>
       <c r="N20" t="n">
-        <v>621.4195879253972</v>
+        <v>621.4195879253971</v>
       </c>
       <c r="O20" t="n">
         <v>527.8417972297963</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K21" t="n">
         <v>365.713175102459</v>
       </c>
       <c r="L21" t="n">
-        <v>164.7388768277345</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>524.9906463802614</v>
       </c>
       <c r="N21" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>584.7181369443084</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>460.2659401195907</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.03964466807932</v>
+        <v>22.03964466807931</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L24" t="n">
-        <v>289.5345526718107</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M24" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>584.7181369443084</v>
+        <v>524.9906463802614</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>139.2665439436748</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>150.2680087281359</v>
       </c>
       <c r="L27" t="n">
-        <v>545.9256328617528</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>701.1834393779736</v>
@@ -36688,7 +36688,7 @@
         <v>731.2478139466177</v>
       </c>
       <c r="O27" t="n">
-        <v>189.0605128106913</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>731.2478139466177</v>
+        <v>486.1981422977056</v>
       </c>
       <c r="O30" t="n">
-        <v>413.9867494965283</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P30" t="n">
         <v>460.2659401195907</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L33" t="n">
-        <v>19.01254813883934</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>731.2478139466177</v>
+        <v>486.1981422977056</v>
       </c>
       <c r="O33" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q33" t="n">
         <v>270.5220045329717</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K36" t="n">
         <v>365.713175102459</v>
@@ -37393,19 +37393,19 @@
         <v>545.9256328617528</v>
       </c>
       <c r="M36" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P36" t="n">
-        <v>423.3396910655531</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q36" t="n">
-        <v>270.5220045329717</v>
+        <v>210.7945139689248</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K39" t="n">
-        <v>365.713175102459</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>545.9256328617528</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>701.1834393779736</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>731.2478139466177</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P39" t="n">
-        <v>460.2659401195907</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.5957554789343</v>
+        <v>150.2680087281354</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K42" t="n">
         <v>365.713175102459</v>
       </c>
       <c r="L42" t="n">
-        <v>545.9256328617528</v>
+        <v>486.1981422977056</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>79.53905337962848</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>584.7181369443084</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>109.1435586542164</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L45" t="n">
         <v>545.9256328617529</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N45" t="n">
-        <v>715.7742330150586</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P45" t="n">
-        <v>460.2659401195908</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
